--- a/附件/result1.xlsx
+++ b/附件/result1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2024-5-1\数学建模竞赛组委会、专家组工作\竞赛2025\A题-烟幕干扰弹投放策略\2025-8-25 A题(蔡志杰)\附件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio/github/MathModeling25/附件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCD9C1E-C85C-41A1-96D3-F1E5A00FBEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965CEEDD-3F1A-CF49-8C2E-D8A873D9C0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>烟幕干扰弹投放点的x坐标 (m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +68,10 @@
   </si>
   <si>
     <t>注：以x轴为正向，逆时针方向为正，取值0~360（度）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计：7.5624</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +94,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -129,6 +136,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,16 +476,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.58203125" customWidth="1"/>
-    <col min="2" max="3" width="16.58203125" customWidth="1"/>
-    <col min="4" max="10" width="14.58203125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="10" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="32">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -507,33 +519,111 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>179.6541</v>
+      </c>
+      <c r="B2" s="3">
+        <v>139.95410000000001</v>
+      </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
+      <c r="D2" s="4">
+        <v>17798.275600000001</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.04E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1800</v>
+      </c>
+      <c r="G2" s="4">
+        <v>17291.483499999998</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3.0703</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1735.7460000000001</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3.8113999999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
+        <v>179.6541</v>
+      </c>
+      <c r="B3" s="3">
+        <v>139.95410000000001</v>
+      </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
+      <c r="D3" s="4">
+        <v>17273.938399999999</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.1762999999999999</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1800</v>
+      </c>
+      <c r="G3" s="4">
+        <v>16523.290700000001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7.7084999999999999</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1659.0345</v>
+      </c>
+      <c r="J3" s="4">
+        <v>2.6071</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>179.6541</v>
+      </c>
+      <c r="B4" s="3">
+        <v>139.95410000000001</v>
+      </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
+      <c r="D4" s="4">
+        <v>17009.330099999999</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4.7739000000000003</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1800</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16158.4244</v>
+      </c>
+      <c r="H4" s="4">
+        <v>9.9115000000000002</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1618.8644999999999</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.1438999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="65.5" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>

--- a/附件/result1.xlsx
+++ b/附件/result1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio/github/MathModeling25/附件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965CEEDD-3F1A-CF49-8C2E-D8A873D9C0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BFF4C5-0335-5741-AD5A-3C882937772A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合计：7.5624</t>
+    <t>合计：7.6515</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +477,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -548,7 +548,7 @@
         <v>1735.7460000000001</v>
       </c>
       <c r="J2" s="4">
-        <v>3.8113999999999999</v>
+        <v>3.9108999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -580,7 +580,7 @@
         <v>1659.0345</v>
       </c>
       <c r="J3" s="4">
-        <v>2.6071</v>
+        <v>2.5920000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -612,7 +612,7 @@
         <v>1618.8644999999999</v>
       </c>
       <c r="J4" s="4">
-        <v>1.1438999999999999</v>
+        <v>1.1485000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">

--- a/附件/result1.xlsx
+++ b/附件/result1.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mio/github/MathModeling25/附件/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BFF4C5-0335-5741-AD5A-3C882937772A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5F6F5-DD24-3D4F-9286-53469E3E10A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>烟幕干扰弹投放点的x坐标 (m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +79,6 @@
   </si>
   <si>
     <t>注：以x轴为正向，逆时针方向为正，取值0~360（度）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计：7.6515</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +86,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,12 +104,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,7 +481,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -520,107 +524,108 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3">
-        <v>179.6541</v>
-      </c>
-      <c r="B2" s="3">
-        <v>139.95410000000001</v>
+      <c r="A2" s="4">
+        <v>179.65237389000001</v>
+      </c>
+      <c r="B2" s="4">
+        <v>139.95298839</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
-        <v>17798.275600000001</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.04E-2</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2">
+        <v>17798.64</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+      <c r="F2">
         <v>1800</v>
       </c>
-      <c r="G2" s="4">
-        <v>17291.483499999998</v>
-      </c>
-      <c r="H2" s="4">
-        <v>3.0703</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1735.7460000000001</v>
-      </c>
-      <c r="J2" s="4">
-        <v>3.9108999999999998</v>
+      <c r="G2">
+        <v>17292.22</v>
+      </c>
+      <c r="H2">
+        <v>3.08</v>
+      </c>
+      <c r="I2">
+        <v>1735.84</v>
+      </c>
+      <c r="J2">
+        <v>3.9037999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3">
-        <v>179.6541</v>
-      </c>
-      <c r="B3" s="3">
-        <v>139.95410000000001</v>
+      <c r="A3" s="4">
+        <v>179.65237389000001</v>
+      </c>
+      <c r="B3" s="4">
+        <v>139.95298839</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
-        <v>17273.938399999999</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3.1762999999999999</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3">
+        <v>17273.95</v>
+      </c>
+      <c r="E3">
+        <v>3.19</v>
+      </c>
+      <c r="F3">
         <v>1800</v>
       </c>
-      <c r="G3" s="4">
-        <v>16523.290700000001</v>
-      </c>
-      <c r="H3" s="4">
-        <v>7.7084999999999999</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1659.0345</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2.5920000000000001</v>
+      <c r="G3">
+        <v>16523.53</v>
+      </c>
+      <c r="H3">
+        <v>7.74</v>
+      </c>
+      <c r="I3">
+        <v>1659.12</v>
+      </c>
+      <c r="J3">
+        <v>2.6025</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="3">
-        <v>179.6541</v>
-      </c>
-      <c r="B4" s="3">
-        <v>139.95410000000001</v>
+      <c r="A4" s="4">
+        <v>179.65237389000001</v>
+      </c>
+      <c r="B4" s="4">
+        <v>139.95298839</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="4">
-        <v>17009.330099999999</v>
-      </c>
-      <c r="E4" s="4">
-        <v>4.7739000000000003</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="D4">
+        <v>17010.62</v>
+      </c>
+      <c r="E4">
+        <v>4.79</v>
+      </c>
+      <c r="F4">
         <v>1800</v>
       </c>
-      <c r="G4" s="4">
-        <v>16158.4244</v>
-      </c>
-      <c r="H4" s="4">
-        <v>9.9115000000000002</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1618.8644999999999</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1.1485000000000001</v>
+      <c r="G4">
+        <v>16159.31</v>
+      </c>
+      <c r="H4">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="I4">
+        <v>1618.69</v>
+      </c>
+      <c r="J4">
+        <v>1.1453</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="J5" t="s">
-        <v>11</v>
+      <c r="J5">
+        <f>J2+J3+J4</f>
+        <v>7.6515999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="65.5" customHeight="1">
